--- a/PlantenDrill.xlsx
+++ b/PlantenDrill.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/christophebrock/PycharmProjects/Plantendril2/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7D64C6D2-02B1-E046-9424-D075160A9387}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EBFD7E7D-B555-B144-A2D7-A18290BA97FA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="760" windowWidth="34560" windowHeight="20480" xr2:uid="{628E6AF3-F566-344A-875C-240478345B94}"/>
   </bookViews>
@@ -4792,9 +4792,6 @@
     <t>Foto 2</t>
   </si>
   <si>
-    <t>InheemsWestEuropa</t>
-  </si>
-  <si>
     <t>Vaste plant</t>
   </si>
   <si>
@@ -4831,9 +4828,6 @@
     <t>Impatiens glandulifera, of reuzenbalsemien, is een snelgroeiende eenjarige plant met dikke, holle stengels en opvallende roze tot paarse bloemen. De plant groeit van nature in de Himalaya, maar is geïntroduceerd in Europa en wordt daar als een invasieve soort beschouwd. Kenmerkend is zijn vermogen om zich agressief te verspreiden langs rivieren en vochtige gebieden, waardoor hij inheemse planten verdringt en de biodiversiteit vermindert. Holle stengel. Invasieve exoot.</t>
   </si>
   <si>
-    <t>Invasief</t>
-  </si>
-  <si>
     <t>Signaalplant</t>
   </si>
   <si>
@@ -4892,6 +4886,12 @@
   </si>
   <si>
     <t>De Acer platanoides 'Globosum' (Noorse bolesdoorn) is een traaggroeiende, bladverliezende, decoratieve boom met een compacte, ronde kruin. Later groeit de kroon meer in de breedte en wordt hij plat bolvormig, waardoor hij minder geschikt is in smalle lanen.</t>
+  </si>
+  <si>
+    <t>Inheems in West-Europa</t>
+  </si>
+  <si>
+    <t>Invasieve exoot</t>
   </si>
 </sst>
 </file>
@@ -5785,7 +5785,7 @@
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft"/>
+      <selection pane="bottomLeft" activeCell="L2" sqref="L2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -5832,37 +5832,37 @@
         <v>1583</v>
       </c>
       <c r="J1" t="s">
-        <v>1592</v>
+        <v>1591</v>
       </c>
       <c r="K1" s="4" t="s">
+        <v>1616</v>
+      </c>
+      <c r="L1" s="4" t="s">
+        <v>1617</v>
+      </c>
+      <c r="M1" s="4" t="s">
+        <v>1596</v>
+      </c>
+      <c r="N1" s="4" t="s">
+        <v>1585</v>
+      </c>
+      <c r="O1" s="4" t="s">
+        <v>1588</v>
+      </c>
+      <c r="P1" s="4" t="s">
         <v>1584</v>
       </c>
-      <c r="L1" s="4" t="s">
-        <v>1597</v>
-      </c>
-      <c r="M1" s="4" t="s">
-        <v>1598</v>
-      </c>
-      <c r="N1" s="4" t="s">
+      <c r="Q1" s="4" t="s">
         <v>1586</v>
       </c>
-      <c r="O1" s="4" t="s">
+      <c r="R1" s="4" t="s">
+        <v>1587</v>
+      </c>
+      <c r="S1" s="4" t="s">
         <v>1589</v>
       </c>
-      <c r="P1" s="4" t="s">
-        <v>1585</v>
-      </c>
-      <c r="Q1" s="4" t="s">
-        <v>1587</v>
-      </c>
-      <c r="R1" s="4" t="s">
-        <v>1588</v>
-      </c>
-      <c r="S1" s="4" t="s">
+      <c r="T1" s="4" t="s">
         <v>1590</v>
-      </c>
-      <c r="T1" s="4" t="s">
-        <v>1591</v>
       </c>
     </row>
     <row r="2" spans="1:20" x14ac:dyDescent="0.2">
@@ -6040,16 +6040,16 @@
         <v>987</v>
       </c>
       <c r="C9" t="s">
-        <v>1615</v>
+        <v>1613</v>
       </c>
       <c r="E9" s="2" t="s">
         <v>623</v>
       </c>
       <c r="F9" s="5" t="s">
-        <v>1616</v>
+        <v>1614</v>
       </c>
       <c r="G9" s="5" t="s">
-        <v>1617</v>
+        <v>1615</v>
       </c>
     </row>
     <row r="10" spans="1:20" x14ac:dyDescent="0.2">
@@ -6066,7 +6066,7 @@
         <v>708</v>
       </c>
       <c r="G10" t="s">
-        <v>1614</v>
+        <v>1612</v>
       </c>
       <c r="H10" t="s">
         <v>88</v>
@@ -8187,7 +8187,7 @@
         <v>810</v>
       </c>
       <c r="G121" t="s">
-        <v>1593</v>
+        <v>1592</v>
       </c>
       <c r="H121" t="s">
         <v>383</v>
@@ -8278,7 +8278,7 @@
         <v>803</v>
       </c>
       <c r="G126" t="s">
-        <v>1594</v>
+        <v>1593</v>
       </c>
       <c r="H126" t="s">
         <v>69</v>
@@ -8394,7 +8394,7 @@
         <v>585</v>
       </c>
       <c r="G133" t="s">
-        <v>1595</v>
+        <v>1594</v>
       </c>
       <c r="H133" t="s">
         <v>119</v>
@@ -8454,7 +8454,7 @@
         <v>794</v>
       </c>
       <c r="G136" t="s">
-        <v>1596</v>
+        <v>1595</v>
       </c>
       <c r="H136" t="s">
         <v>54</v>
@@ -9995,7 +9995,7 @@
         <v>742</v>
       </c>
       <c r="G215" t="s">
-        <v>1613</v>
+        <v>1611</v>
       </c>
       <c r="H215" t="s">
         <v>154</v>
@@ -10090,7 +10090,7 @@
         <v>593</v>
       </c>
       <c r="G219" t="s">
-        <v>1612</v>
+        <v>1610</v>
       </c>
       <c r="H219" t="s">
         <v>295</v>
@@ -10257,7 +10257,7 @@
         <v>607</v>
       </c>
       <c r="G226" t="s">
-        <v>1611</v>
+        <v>1609</v>
       </c>
       <c r="H226" t="s">
         <v>290</v>
@@ -10542,7 +10542,7 @@
         <v>802</v>
       </c>
       <c r="G238" t="s">
-        <v>1610</v>
+        <v>1608</v>
       </c>
       <c r="H238" t="s">
         <v>68</v>
@@ -10882,7 +10882,7 @@
         <v>865</v>
       </c>
       <c r="G255" t="s">
-        <v>1609</v>
+        <v>1607</v>
       </c>
       <c r="H255" t="s">
         <v>185</v>
@@ -11235,7 +11235,7 @@
         <v>785</v>
       </c>
       <c r="G274" t="s">
-        <v>1608</v>
+        <v>1606</v>
       </c>
       <c r="H274" t="s">
         <v>256</v>
@@ -11396,7 +11396,7 @@
         <v>843</v>
       </c>
       <c r="G281" t="s">
-        <v>1607</v>
+        <v>1605</v>
       </c>
       <c r="H281" t="s">
         <v>288</v>
@@ -11476,7 +11476,7 @@
         <v>598</v>
       </c>
       <c r="G285" t="s">
-        <v>1606</v>
+        <v>1604</v>
       </c>
       <c r="H285" t="s">
         <v>424</v>
@@ -11516,10 +11516,10 @@
         <v>625</v>
       </c>
       <c r="F287" s="5" t="s">
-        <v>1604</v>
+        <v>1602</v>
       </c>
       <c r="G287" t="s">
-        <v>1605</v>
+        <v>1603</v>
       </c>
       <c r="H287" t="s">
         <v>198</v>
@@ -11633,7 +11633,7 @@
         <v>766</v>
       </c>
       <c r="G293" t="s">
-        <v>1603</v>
+        <v>1601</v>
       </c>
       <c r="H293" t="s">
         <v>199</v>
@@ -11748,7 +11748,7 @@
         <v>603</v>
       </c>
       <c r="G298" t="s">
-        <v>1602</v>
+        <v>1600</v>
       </c>
       <c r="H298" t="s">
         <v>341</v>
@@ -11940,7 +11940,7 @@
         <v>626</v>
       </c>
       <c r="F307" s="5" t="s">
-        <v>1600</v>
+        <v>1598</v>
       </c>
       <c r="G307" t="s">
         <v>333</v>
@@ -11966,7 +11966,7 @@
         <v>797</v>
       </c>
       <c r="G308" t="s">
-        <v>1601</v>
+        <v>1599</v>
       </c>
       <c r="H308" t="s">
         <v>59</v>
@@ -12077,7 +12077,7 @@
         <v>584</v>
       </c>
       <c r="G314" t="s">
-        <v>1599</v>
+        <v>1597</v>
       </c>
       <c r="H314" t="s">
         <v>292</v>
@@ -12194,8 +12194,8 @@
   <dimension ref="A1:F91"/>
   <sheetViews>
     <sheetView zoomScale="111" zoomScaleNormal="130" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A26" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B45" sqref="B45"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" sqref="A1:F11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>

--- a/PlantenDrill.xlsx
+++ b/PlantenDrill.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11207"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10727"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/christophebrock/PycharmProjects/Plantendril2/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/christophe.brock/Downloads/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{192AEE9B-FD25-A54B-B13D-BDC76EE78645}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BE9377EC-BA8A-F84B-8506-D94571B04F3F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="660" yWindow="760" windowWidth="33900" windowHeight="20480" xr2:uid="{628E6AF3-F566-344A-875C-240478345B94}"/>
+    <workbookView xWindow="660" yWindow="760" windowWidth="33900" windowHeight="19800" xr2:uid="{628E6AF3-F566-344A-875C-240478345B94}"/>
   </bookViews>
   <sheets>
     <sheet name="Planten" sheetId="14" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2755" uniqueCount="1676">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2755" uniqueCount="1677">
   <si>
     <t>Extra info</t>
   </si>
@@ -4849,87 +4849,6 @@
     <t>Rhododendron</t>
   </si>
   <si>
-    <t>Hemelboom</t>
-  </si>
-  <si>
-    <t>Smalbladige aster</t>
-  </si>
-  <si>
-    <t>Wilgenaster</t>
-  </si>
-  <si>
-    <t>Struikwinde</t>
-  </si>
-  <si>
-    <t>Hottentotvijg</t>
-  </si>
-  <si>
-    <t>Fluweelkornoelje</t>
-  </si>
-  <si>
-    <t>Dwergmispel</t>
-  </si>
-  <si>
-    <t>Watercrassula</t>
-  </si>
-  <si>
-    <t>Grote waternavel</t>
-  </si>
-  <si>
-    <t>Canadese waterpest</t>
-  </si>
-  <si>
-    <t>Smalbladige waterpest</t>
-  </si>
-  <si>
-    <t>Sachalinse duizendknoop</t>
-  </si>
-  <si>
-    <t>Boheemse duizendknoop</t>
-  </si>
-  <si>
-    <t>Aardpeer</t>
-  </si>
-  <si>
-    <t>Grote waterpest</t>
-  </si>
-  <si>
-    <t>Gele waterteunisbloem</t>
-  </si>
-  <si>
-    <t>Waterteunisbloem</t>
-  </si>
-  <si>
-    <t>Mahoniestruik</t>
-  </si>
-  <si>
-    <t>Parelvederkruid</t>
-  </si>
-  <si>
-    <t>Hetero waterpest</t>
-  </si>
-  <si>
-    <t>Amerikaanse vogelkers</t>
-  </si>
-  <si>
-    <t>Pontische rododendron</t>
-  </si>
-  <si>
-    <t>Rimpelroos</t>
-  </si>
-  <si>
-    <t>Canadese guldenroede</t>
-  </si>
-  <si>
-    <t>Reuzen-guldenroede</t>
-  </si>
-  <si>
-    <t>Witte spirea</t>
-  </si>
-  <si>
-    <t>Douglas spirea</t>
-  </si>
-  <si>
     <t>Simaroubaceae</t>
   </si>
   <si>
@@ -5066,6 +4985,90 @@
   </si>
   <si>
     <t>ID (Formule;Niet aanpassen)</t>
+  </si>
+  <si>
+    <t>hemelboom</t>
+  </si>
+  <si>
+    <t>smalbladige aster</t>
+  </si>
+  <si>
+    <t>wilgenaster</t>
+  </si>
+  <si>
+    <t>hottentotvijg</t>
+  </si>
+  <si>
+    <t>fluweelkornoelje</t>
+  </si>
+  <si>
+    <t>dwergmispel</t>
+  </si>
+  <si>
+    <t>watercrassula</t>
+  </si>
+  <si>
+    <t>canadese waterpest</t>
+  </si>
+  <si>
+    <t>smalbladige waterpest</t>
+  </si>
+  <si>
+    <t>sachalinse duizendknoop</t>
+  </si>
+  <si>
+    <t>boheemse duizendknoop</t>
+  </si>
+  <si>
+    <t>aardpeer</t>
+  </si>
+  <si>
+    <t>grote waterpest</t>
+  </si>
+  <si>
+    <t>gele waterteunisbloem</t>
+  </si>
+  <si>
+    <t>waterteunisbloem</t>
+  </si>
+  <si>
+    <t>mahoniestruik</t>
+  </si>
+  <si>
+    <t>parelvederkruid</t>
+  </si>
+  <si>
+    <t>hetero waterpest</t>
+  </si>
+  <si>
+    <t>amerikaanse vogelkers</t>
+  </si>
+  <si>
+    <t>pontische rododendron</t>
+  </si>
+  <si>
+    <t>rimpelroos</t>
+  </si>
+  <si>
+    <t>canadese guldenroede</t>
+  </si>
+  <si>
+    <t>reuzen-guldenroede</t>
+  </si>
+  <si>
+    <t>witte spirea</t>
+  </si>
+  <si>
+    <t>douglas spirea</t>
+  </si>
+  <si>
+    <t>Egeria (waterpest)</t>
+  </si>
+  <si>
+    <t>Reynoutria</t>
+  </si>
+  <si>
+    <t>struikwinde</t>
   </si>
 </sst>
 </file>
@@ -6002,7 +6005,7 @@
   <sheetData>
     <row r="1" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A1" s="6" t="s">
-        <v>1675</v>
+        <v>1648</v>
       </c>
       <c r="B1" t="s">
         <v>871</v>
@@ -8540,10 +8543,10 @@
     <row r="94" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A94" s="6" t="str">
         <f t="shared" si="1"/>
-        <v xml:space="preserve">Fallopia japonica  </v>
+        <v xml:space="preserve">Reynoutria japonica  </v>
       </c>
       <c r="B94" s="2" t="s">
-        <v>1007</v>
+        <v>1675</v>
       </c>
       <c r="C94" s="2" t="s">
         <v>1008</v>
@@ -8555,7 +8558,7 @@
         <v>759</v>
       </c>
       <c r="H94" t="s">
-        <v>1671</v>
+        <v>1644</v>
       </c>
       <c r="I94" t="s">
         <v>41</v>
@@ -9137,7 +9140,7 @@
         <v>764</v>
       </c>
       <c r="H116" t="s">
-        <v>1672</v>
+        <v>1645</v>
       </c>
       <c r="I116" t="s">
         <v>49</v>
@@ -9266,7 +9269,7 @@
         <v>765</v>
       </c>
       <c r="H121" t="s">
-        <v>1673</v>
+        <v>1646</v>
       </c>
       <c r="I121" t="s">
         <v>50</v>
@@ -9374,7 +9377,7 @@
         <v>763</v>
       </c>
       <c r="H125" t="s">
-        <v>1674</v>
+        <v>1647</v>
       </c>
       <c r="I125" t="s">
         <v>48</v>
@@ -14105,19 +14108,19 @@
         <v xml:space="preserve">Ailanthus altissima  </v>
       </c>
       <c r="B296" t="s">
-        <v>1634</v>
+        <v>1607</v>
       </c>
       <c r="C296" t="s">
-        <v>1635</v>
+        <v>1608</v>
       </c>
       <c r="F296" t="s">
-        <v>1630</v>
+        <v>1603</v>
       </c>
       <c r="G296" t="s">
-        <v>1603</v>
+        <v>1649</v>
       </c>
       <c r="H296" t="s">
-        <v>1668</v>
+        <v>1641</v>
       </c>
       <c r="L296" s="4" t="s">
         <v>1584</v>
@@ -14132,19 +14135,19 @@
         <v xml:space="preserve">Aster lanceolatus  </v>
       </c>
       <c r="B297" t="s">
-        <v>1636</v>
+        <v>1609</v>
       </c>
       <c r="C297" t="s">
-        <v>1637</v>
+        <v>1610</v>
       </c>
       <c r="F297" t="s">
         <v>604</v>
       </c>
       <c r="G297" t="s">
-        <v>1604</v>
+        <v>1650</v>
       </c>
       <c r="H297" t="s">
-        <v>1668</v>
+        <v>1641</v>
       </c>
       <c r="L297" s="4" t="s">
         <v>1584</v>
@@ -14159,19 +14162,19 @@
         <v xml:space="preserve">Aster salignus (x)  </v>
       </c>
       <c r="B298" t="s">
-        <v>1636</v>
+        <v>1609</v>
       </c>
       <c r="C298" t="s">
-        <v>1666</v>
+        <v>1639</v>
       </c>
       <c r="F298" t="s">
         <v>604</v>
       </c>
       <c r="G298" t="s">
-        <v>1605</v>
+        <v>1651</v>
       </c>
       <c r="H298" t="s">
-        <v>1668</v>
+        <v>1641</v>
       </c>
       <c r="L298" s="4" t="s">
         <v>1584</v>
@@ -14186,19 +14189,19 @@
         <v xml:space="preserve">Baccharis halimifolia  </v>
       </c>
       <c r="B299" t="s">
-        <v>1638</v>
+        <v>1611</v>
       </c>
       <c r="C299" t="s">
-        <v>1639</v>
+        <v>1612</v>
       </c>
       <c r="F299" t="s">
         <v>604</v>
       </c>
       <c r="G299" t="s">
-        <v>1606</v>
+        <v>1676</v>
       </c>
       <c r="H299" t="s">
-        <v>1669</v>
+        <v>1642</v>
       </c>
       <c r="L299" s="4" t="s">
         <v>1584</v>
@@ -14213,19 +14216,19 @@
         <v xml:space="preserve">Carpobrotus spp.  </v>
       </c>
       <c r="B300" t="s">
-        <v>1640</v>
+        <v>1613</v>
       </c>
       <c r="C300" t="s">
         <v>1027</v>
       </c>
       <c r="F300" t="s">
-        <v>1631</v>
+        <v>1604</v>
       </c>
       <c r="G300" t="s">
-        <v>1607</v>
+        <v>1652</v>
       </c>
       <c r="H300" t="s">
-        <v>1670</v>
+        <v>1643</v>
       </c>
       <c r="L300" s="4" t="s">
         <v>1584</v>
@@ -14243,16 +14246,16 @@
         <v>888</v>
       </c>
       <c r="C301" t="s">
-        <v>1641</v>
+        <v>1614</v>
       </c>
       <c r="F301" t="s">
         <v>582</v>
       </c>
       <c r="G301" t="s">
-        <v>1608</v>
+        <v>1653</v>
       </c>
       <c r="H301" t="s">
-        <v>1668</v>
+        <v>1641</v>
       </c>
       <c r="L301" s="4" t="s">
         <v>1584</v>
@@ -14267,19 +14270,19 @@
         <v xml:space="preserve">Cotoneaster horizontalis  </v>
       </c>
       <c r="B302" t="s">
-        <v>1642</v>
+        <v>1615</v>
       </c>
       <c r="C302" t="s">
-        <v>1643</v>
+        <v>1616</v>
       </c>
       <c r="F302" t="s">
         <v>590</v>
       </c>
       <c r="G302" t="s">
-        <v>1609</v>
+        <v>1654</v>
       </c>
       <c r="H302" t="s">
-        <v>1668</v>
+        <v>1641</v>
       </c>
       <c r="L302" s="4" t="s">
         <v>1584</v>
@@ -14294,19 +14297,19 @@
         <v xml:space="preserve">Crassula helmsii  </v>
       </c>
       <c r="B303" t="s">
-        <v>1644</v>
+        <v>1617</v>
       </c>
       <c r="C303" t="s">
-        <v>1645</v>
+        <v>1618</v>
       </c>
       <c r="F303" t="s">
         <v>627</v>
       </c>
       <c r="G303" t="s">
-        <v>1610</v>
+        <v>1655</v>
       </c>
       <c r="H303" t="s">
-        <v>1669</v>
+        <v>1642</v>
       </c>
       <c r="L303" s="4" t="s">
         <v>1584</v>
@@ -14321,19 +14324,19 @@
         <v xml:space="preserve">Egeria densa  </v>
       </c>
       <c r="B304" t="s">
-        <v>1646</v>
+        <v>1619</v>
       </c>
       <c r="C304" t="s">
-        <v>1647</v>
+        <v>1620</v>
       </c>
       <c r="F304" t="s">
-        <v>1632</v>
+        <v>1605</v>
       </c>
       <c r="G304" t="s">
-        <v>1611</v>
+        <v>1674</v>
       </c>
       <c r="H304" t="s">
-        <v>1669</v>
+        <v>1642</v>
       </c>
       <c r="L304" s="4" t="s">
         <v>1584</v>
@@ -14348,19 +14351,19 @@
         <v xml:space="preserve">Elodea canadensis  </v>
       </c>
       <c r="B305" t="s">
-        <v>1648</v>
+        <v>1621</v>
       </c>
       <c r="C305" t="s">
         <v>985</v>
       </c>
       <c r="F305" t="s">
-        <v>1632</v>
+        <v>1605</v>
       </c>
       <c r="G305" t="s">
-        <v>1612</v>
+        <v>1656</v>
       </c>
       <c r="H305" t="s">
-        <v>1670</v>
+        <v>1643</v>
       </c>
       <c r="L305" s="4" t="s">
         <v>1584</v>
@@ -14375,19 +14378,19 @@
         <v xml:space="preserve">Elodea nuttallii  </v>
       </c>
       <c r="B306" t="s">
-        <v>1648</v>
+        <v>1621</v>
       </c>
       <c r="C306" t="s">
-        <v>1649</v>
+        <v>1622</v>
       </c>
       <c r="F306" t="s">
-        <v>1632</v>
+        <v>1605</v>
       </c>
       <c r="G306" t="s">
-        <v>1613</v>
+        <v>1657</v>
       </c>
       <c r="H306" t="s">
-        <v>1670</v>
+        <v>1643</v>
       </c>
       <c r="L306" s="4" t="s">
         <v>1584</v>
@@ -14405,16 +14408,16 @@
         <v>1007</v>
       </c>
       <c r="C307" t="s">
-        <v>1650</v>
+        <v>1623</v>
       </c>
       <c r="F307" t="s">
         <v>614</v>
       </c>
       <c r="G307" t="s">
-        <v>1614</v>
+        <v>1658</v>
       </c>
       <c r="H307" t="s">
-        <v>1668</v>
+        <v>1641</v>
       </c>
       <c r="L307" s="4" t="s">
         <v>1584</v>
@@ -14432,16 +14435,16 @@
         <v>1007</v>
       </c>
       <c r="C308" t="s">
-        <v>1667</v>
+        <v>1640</v>
       </c>
       <c r="F308" t="s">
         <v>614</v>
       </c>
       <c r="G308" t="s">
-        <v>1615</v>
+        <v>1659</v>
       </c>
       <c r="H308" t="s">
-        <v>1668</v>
+        <v>1641</v>
       </c>
       <c r="L308" s="4" t="s">
         <v>1584</v>
@@ -14459,16 +14462,16 @@
         <v>1047</v>
       </c>
       <c r="C309" t="s">
-        <v>1651</v>
+        <v>1624</v>
       </c>
       <c r="F309" t="s">
         <v>604</v>
       </c>
       <c r="G309" t="s">
-        <v>1616</v>
+        <v>1660</v>
       </c>
       <c r="H309" t="s">
-        <v>1670</v>
+        <v>1643</v>
       </c>
       <c r="L309" s="4" t="s">
         <v>1584</v>
@@ -14483,19 +14486,19 @@
         <v xml:space="preserve">Lagarosiphon major  </v>
       </c>
       <c r="B310" t="s">
-        <v>1652</v>
+        <v>1625</v>
       </c>
       <c r="C310" t="s">
-        <v>1653</v>
+        <v>1626</v>
       </c>
       <c r="F310" t="s">
-        <v>1632</v>
+        <v>1605</v>
       </c>
       <c r="G310" t="s">
-        <v>1617</v>
+        <v>1661</v>
       </c>
       <c r="H310" t="s">
-        <v>1669</v>
+        <v>1642</v>
       </c>
       <c r="L310" s="4" t="s">
         <v>1584</v>
@@ -14510,7 +14513,7 @@
         <v xml:space="preserve">Ludwigia grandiflora  </v>
       </c>
       <c r="B311" t="s">
-        <v>1654</v>
+        <v>1627</v>
       </c>
       <c r="C311" t="s">
         <v>1014</v>
@@ -14519,10 +14522,10 @@
         <v>613</v>
       </c>
       <c r="G311" t="s">
-        <v>1618</v>
+        <v>1662</v>
       </c>
       <c r="H311" t="s">
-        <v>1668</v>
+        <v>1641</v>
       </c>
       <c r="L311" s="4" t="s">
         <v>1584</v>
@@ -14537,7 +14540,7 @@
         <v xml:space="preserve">Ludwigia peploides  </v>
       </c>
       <c r="B312" t="s">
-        <v>1654</v>
+        <v>1627</v>
       </c>
       <c r="C312" t="s">
         <v>1056</v>
@@ -14546,10 +14549,10 @@
         <v>613</v>
       </c>
       <c r="G312" t="s">
-        <v>1619</v>
+        <v>1663</v>
       </c>
       <c r="H312" t="s">
-        <v>1669</v>
+        <v>1642</v>
       </c>
       <c r="L312" s="4" t="s">
         <v>1584</v>
@@ -14564,7 +14567,7 @@
         <v xml:space="preserve">Mahonia aquifolium  </v>
       </c>
       <c r="B313" t="s">
-        <v>1655</v>
+        <v>1628</v>
       </c>
       <c r="C313" t="s">
         <v>877</v>
@@ -14573,10 +14576,10 @@
         <v>644</v>
       </c>
       <c r="G313" t="s">
-        <v>1620</v>
+        <v>1664</v>
       </c>
       <c r="H313" t="s">
-        <v>1668</v>
+        <v>1641</v>
       </c>
       <c r="L313" s="4" t="s">
         <v>1584</v>
@@ -14591,19 +14594,19 @@
         <v xml:space="preserve">Myriophyllum aquaticum  </v>
       </c>
       <c r="B314" t="s">
-        <v>1656</v>
+        <v>1629</v>
       </c>
       <c r="C314" t="s">
-        <v>1657</v>
+        <v>1630</v>
       </c>
       <c r="F314" t="s">
-        <v>1633</v>
+        <v>1606</v>
       </c>
       <c r="G314" t="s">
-        <v>1621</v>
+        <v>1665</v>
       </c>
       <c r="H314" t="s">
-        <v>1668</v>
+        <v>1641</v>
       </c>
       <c r="L314" s="4" t="s">
         <v>1584</v>
@@ -14618,19 +14621,19 @@
         <v xml:space="preserve">Myriophyllum heterophyllum  </v>
       </c>
       <c r="B315" t="s">
-        <v>1656</v>
+        <v>1629</v>
       </c>
       <c r="C315" t="s">
-        <v>1658</v>
+        <v>1631</v>
       </c>
       <c r="F315" t="s">
-        <v>1633</v>
+        <v>1606</v>
       </c>
       <c r="G315" t="s">
-        <v>1622</v>
+        <v>1666</v>
       </c>
       <c r="H315" t="s">
-        <v>1669</v>
+        <v>1642</v>
       </c>
       <c r="L315" s="4" t="s">
         <v>1584</v>
@@ -14648,16 +14651,16 @@
         <v>938</v>
       </c>
       <c r="C316" t="s">
-        <v>1659</v>
+        <v>1632</v>
       </c>
       <c r="F316" t="s">
         <v>590</v>
       </c>
       <c r="G316" t="s">
-        <v>1623</v>
+        <v>1667</v>
       </c>
       <c r="H316" t="s">
-        <v>1670</v>
+        <v>1643</v>
       </c>
       <c r="L316" s="4" t="s">
         <v>1584</v>
@@ -14675,16 +14678,16 @@
         <v>1602</v>
       </c>
       <c r="C317" t="s">
-        <v>1660</v>
+        <v>1633</v>
       </c>
       <c r="F317" t="s">
         <v>584</v>
       </c>
       <c r="G317" t="s">
-        <v>1624</v>
+        <v>1668</v>
       </c>
       <c r="H317" t="s">
-        <v>1668</v>
+        <v>1641</v>
       </c>
       <c r="L317" s="4" t="s">
         <v>1584</v>
@@ -14702,16 +14705,16 @@
         <v>453</v>
       </c>
       <c r="C318" t="s">
-        <v>1661</v>
+        <v>1634</v>
       </c>
       <c r="F318" t="s">
         <v>590</v>
       </c>
       <c r="G318" t="s">
-        <v>1625</v>
+        <v>1669</v>
       </c>
       <c r="H318" t="s">
-        <v>1670</v>
+        <v>1643</v>
       </c>
       <c r="L318" s="4" t="s">
         <v>1584</v>
@@ -14726,7 +14729,7 @@
         <v xml:space="preserve">Solidago canadensis  </v>
       </c>
       <c r="B319" t="s">
-        <v>1662</v>
+        <v>1635</v>
       </c>
       <c r="C319" t="s">
         <v>985</v>
@@ -14735,10 +14738,10 @@
         <v>604</v>
       </c>
       <c r="G319" t="s">
-        <v>1626</v>
+        <v>1670</v>
       </c>
       <c r="H319" t="s">
-        <v>1670</v>
+        <v>1643</v>
       </c>
       <c r="L319" s="4" t="s">
         <v>1584</v>
@@ -14753,19 +14756,19 @@
         <v xml:space="preserve">Solidago gigantea  </v>
       </c>
       <c r="B320" t="s">
-        <v>1662</v>
+        <v>1635</v>
       </c>
       <c r="C320" t="s">
-        <v>1663</v>
+        <v>1636</v>
       </c>
       <c r="F320" t="s">
         <v>604</v>
       </c>
       <c r="G320" t="s">
-        <v>1627</v>
+        <v>1671</v>
       </c>
       <c r="H320" t="s">
-        <v>1670</v>
+        <v>1643</v>
       </c>
       <c r="L320" s="4" t="s">
         <v>1584</v>
@@ -14780,7 +14783,7 @@
         <v xml:space="preserve">Spiraea alba  </v>
       </c>
       <c r="B321" t="s">
-        <v>1664</v>
+        <v>1637</v>
       </c>
       <c r="C321" t="s">
         <v>919</v>
@@ -14789,10 +14792,10 @@
         <v>590</v>
       </c>
       <c r="G321" t="s">
-        <v>1628</v>
+        <v>1672</v>
       </c>
       <c r="H321" t="s">
-        <v>1668</v>
+        <v>1641</v>
       </c>
       <c r="L321" s="4" t="s">
         <v>1584</v>
@@ -14807,19 +14810,19 @@
         <v xml:space="preserve">Spiraea douglasii  </v>
       </c>
       <c r="B322" t="s">
-        <v>1664</v>
+        <v>1637</v>
       </c>
       <c r="C322" t="s">
-        <v>1665</v>
+        <v>1638</v>
       </c>
       <c r="F322" t="s">
         <v>590</v>
       </c>
       <c r="G322" t="s">
-        <v>1629</v>
+        <v>1673</v>
       </c>
       <c r="H322" t="s">
-        <v>1668</v>
+        <v>1641</v>
       </c>
       <c r="L322" s="4" t="s">
         <v>1584</v>

--- a/PlantenDrill.xlsx
+++ b/PlantenDrill.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/christophe.brock/Downloads/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/christophebrock/PycharmProjects/Plantendril2/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BE9377EC-BA8A-F84B-8506-D94571B04F3F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0A345A2F-7C27-1941-A391-4452C0F6A65C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="660" yWindow="760" windowWidth="33900" windowHeight="19800" xr2:uid="{628E6AF3-F566-344A-875C-240478345B94}"/>
   </bookViews>
@@ -4990,30 +4990,15 @@
     <t>hemelboom</t>
   </si>
   <si>
-    <t>smalbladige aster</t>
-  </si>
-  <si>
     <t>wilgenaster</t>
   </si>
   <si>
     <t>hottentotvijg</t>
   </si>
   <si>
-    <t>fluweelkornoelje</t>
-  </si>
-  <si>
-    <t>dwergmispel</t>
-  </si>
-  <si>
     <t>watercrassula</t>
   </si>
   <si>
-    <t>canadese waterpest</t>
-  </si>
-  <si>
-    <t>smalbladige waterpest</t>
-  </si>
-  <si>
     <t>sachalinse duizendknoop</t>
   </si>
   <si>
@@ -5023,12 +5008,6 @@
     <t>aardpeer</t>
   </si>
   <si>
-    <t>grote waterpest</t>
-  </si>
-  <si>
-    <t>gele waterteunisbloem</t>
-  </si>
-  <si>
     <t>waterteunisbloem</t>
   </si>
   <si>
@@ -5038,9 +5017,6 @@
     <t>parelvederkruid</t>
   </si>
   <si>
-    <t>hetero waterpest</t>
-  </si>
-  <si>
     <t>amerikaanse vogelkers</t>
   </si>
   <si>
@@ -5053,22 +5029,46 @@
     <t>canadese guldenroede</t>
   </si>
   <si>
-    <t>reuzen-guldenroede</t>
-  </si>
-  <si>
     <t>witte spirea</t>
   </si>
   <si>
-    <t>douglas spirea</t>
-  </si>
-  <si>
-    <t>Egeria (waterpest)</t>
-  </si>
-  <si>
     <t>Reynoutria</t>
   </si>
   <si>
-    <t>struikwinde</t>
+    <t>verspreidbladige waterpest</t>
+  </si>
+  <si>
+    <t>kleine waterteunisbloem</t>
+  </si>
+  <si>
+    <t>ongelijkbladig fonteinkruid</t>
+  </si>
+  <si>
+    <t>late guldenroede</t>
+  </si>
+  <si>
+    <t>douglasspirea of douglaspluimspirea</t>
+  </si>
+  <si>
+    <t>smalbladige of smalle aster</t>
+  </si>
+  <si>
+    <t>struikaster</t>
+  </si>
+  <si>
+    <t>canadese kornoelje</t>
+  </si>
+  <si>
+    <t>(vlakke) dwergmispel</t>
+  </si>
+  <si>
+    <t>Egeria (argentijnse) (waterpest)</t>
+  </si>
+  <si>
+    <t>brede waterpest</t>
+  </si>
+  <si>
+    <t>smalle waterpest</t>
   </si>
 </sst>
 </file>
@@ -8546,7 +8546,7 @@
         <v xml:space="preserve">Reynoutria japonica  </v>
       </c>
       <c r="B94" s="2" t="s">
-        <v>1675</v>
+        <v>1664</v>
       </c>
       <c r="C94" s="2" t="s">
         <v>1008</v>
@@ -14144,7 +14144,7 @@
         <v>604</v>
       </c>
       <c r="G297" t="s">
-        <v>1650</v>
+        <v>1670</v>
       </c>
       <c r="H297" t="s">
         <v>1641</v>
@@ -14171,7 +14171,7 @@
         <v>604</v>
       </c>
       <c r="G298" t="s">
-        <v>1651</v>
+        <v>1650</v>
       </c>
       <c r="H298" t="s">
         <v>1641</v>
@@ -14198,7 +14198,7 @@
         <v>604</v>
       </c>
       <c r="G299" t="s">
-        <v>1676</v>
+        <v>1671</v>
       </c>
       <c r="H299" t="s">
         <v>1642</v>
@@ -14225,7 +14225,7 @@
         <v>1604</v>
       </c>
       <c r="G300" t="s">
-        <v>1652</v>
+        <v>1651</v>
       </c>
       <c r="H300" t="s">
         <v>1643</v>
@@ -14252,7 +14252,7 @@
         <v>582</v>
       </c>
       <c r="G301" t="s">
-        <v>1653</v>
+        <v>1672</v>
       </c>
       <c r="H301" t="s">
         <v>1641</v>
@@ -14279,7 +14279,7 @@
         <v>590</v>
       </c>
       <c r="G302" t="s">
-        <v>1654</v>
+        <v>1673</v>
       </c>
       <c r="H302" t="s">
         <v>1641</v>
@@ -14306,7 +14306,7 @@
         <v>627</v>
       </c>
       <c r="G303" t="s">
-        <v>1655</v>
+        <v>1652</v>
       </c>
       <c r="H303" t="s">
         <v>1642</v>
@@ -14360,7 +14360,7 @@
         <v>1605</v>
       </c>
       <c r="G305" t="s">
-        <v>1656</v>
+        <v>1675</v>
       </c>
       <c r="H305" t="s">
         <v>1643</v>
@@ -14387,7 +14387,7 @@
         <v>1605</v>
       </c>
       <c r="G306" t="s">
-        <v>1657</v>
+        <v>1676</v>
       </c>
       <c r="H306" t="s">
         <v>1643</v>
@@ -14414,7 +14414,7 @@
         <v>614</v>
       </c>
       <c r="G307" t="s">
-        <v>1658</v>
+        <v>1653</v>
       </c>
       <c r="H307" t="s">
         <v>1641</v>
@@ -14441,7 +14441,7 @@
         <v>614</v>
       </c>
       <c r="G308" t="s">
-        <v>1659</v>
+        <v>1654</v>
       </c>
       <c r="H308" t="s">
         <v>1641</v>
@@ -14468,7 +14468,7 @@
         <v>604</v>
       </c>
       <c r="G309" t="s">
-        <v>1660</v>
+        <v>1655</v>
       </c>
       <c r="H309" t="s">
         <v>1643</v>
@@ -14495,7 +14495,7 @@
         <v>1605</v>
       </c>
       <c r="G310" t="s">
-        <v>1661</v>
+        <v>1665</v>
       </c>
       <c r="H310" t="s">
         <v>1642</v>
@@ -14522,7 +14522,7 @@
         <v>613</v>
       </c>
       <c r="G311" t="s">
-        <v>1662</v>
+        <v>1656</v>
       </c>
       <c r="H311" t="s">
         <v>1641</v>
@@ -14549,7 +14549,7 @@
         <v>613</v>
       </c>
       <c r="G312" t="s">
-        <v>1663</v>
+        <v>1666</v>
       </c>
       <c r="H312" t="s">
         <v>1642</v>
@@ -14576,7 +14576,7 @@
         <v>644</v>
       </c>
       <c r="G313" t="s">
-        <v>1664</v>
+        <v>1657</v>
       </c>
       <c r="H313" t="s">
         <v>1641</v>
@@ -14603,7 +14603,7 @@
         <v>1606</v>
       </c>
       <c r="G314" t="s">
-        <v>1665</v>
+        <v>1658</v>
       </c>
       <c r="H314" t="s">
         <v>1641</v>
@@ -14630,7 +14630,7 @@
         <v>1606</v>
       </c>
       <c r="G315" t="s">
-        <v>1666</v>
+        <v>1667</v>
       </c>
       <c r="H315" t="s">
         <v>1642</v>
@@ -14657,7 +14657,7 @@
         <v>590</v>
       </c>
       <c r="G316" t="s">
-        <v>1667</v>
+        <v>1659</v>
       </c>
       <c r="H316" t="s">
         <v>1643</v>
@@ -14684,7 +14684,7 @@
         <v>584</v>
       </c>
       <c r="G317" t="s">
-        <v>1668</v>
+        <v>1660</v>
       </c>
       <c r="H317" t="s">
         <v>1641</v>
@@ -14711,7 +14711,7 @@
         <v>590</v>
       </c>
       <c r="G318" t="s">
-        <v>1669</v>
+        <v>1661</v>
       </c>
       <c r="H318" t="s">
         <v>1643</v>
@@ -14738,7 +14738,7 @@
         <v>604</v>
       </c>
       <c r="G319" t="s">
-        <v>1670</v>
+        <v>1662</v>
       </c>
       <c r="H319" t="s">
         <v>1643</v>
@@ -14765,7 +14765,7 @@
         <v>604</v>
       </c>
       <c r="G320" t="s">
-        <v>1671</v>
+        <v>1668</v>
       </c>
       <c r="H320" t="s">
         <v>1643</v>
@@ -14792,7 +14792,7 @@
         <v>590</v>
       </c>
       <c r="G321" t="s">
-        <v>1672</v>
+        <v>1663</v>
       </c>
       <c r="H321" t="s">
         <v>1641</v>
@@ -14819,7 +14819,7 @@
         <v>590</v>
       </c>
       <c r="G322" t="s">
-        <v>1673</v>
+        <v>1669</v>
       </c>
       <c r="H322" t="s">
         <v>1641</v>
